--- a/out_bd_rate/excel/bdr_BasketballPass_intra.xlsx
+++ b/out_bd_rate/excel/bdr_BasketballPass_intra.xlsx
@@ -19,34 +19,34 @@
     <t>bd_rate</t>
   </si>
   <si>
+    <t>4x4-1-8x8-1</t>
+  </si>
+  <si>
     <t>4x4-1-8x8-2</t>
   </si>
   <si>
+    <t>4x4-1-8x8-3</t>
+  </si>
+  <si>
+    <t>4x4-1-8x8-SAD</t>
+  </si>
+  <si>
     <t>4x4-3-8x8-SAD</t>
   </si>
   <si>
     <t>4x4-3</t>
   </si>
   <si>
-    <t>4x4-1-8x8-SAD</t>
+    <t>8x8-1</t>
+  </si>
+  <si>
+    <t>8x8-2</t>
   </si>
   <si>
     <t>8x8-3</t>
   </si>
   <si>
-    <t>8x8-1</t>
-  </si>
-  <si>
-    <t>4x4-1-8x8-1</t>
-  </si>
-  <si>
     <t>8x8-SAD</t>
-  </si>
-  <si>
-    <t>4x4-1-8x8-3</t>
-  </si>
-  <si>
-    <t>8x8-2</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1254292022828007</v>
+        <v>0.1347959910090957</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.06467021325056166</v>
+        <v>0.1347959910090957</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.05805003122121288</v>
+        <v>0.1254292022828007</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.04617976709042626</v>
+        <v>-0.06467021325056166</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1347959910090957</v>
+        <v>0.04617976709058169</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.08640146820888539</v>
+        <v>0.03644397291791002</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -484,7 +484,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.1347959910090957</v>
+        <v>0.05805003122121288</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.03644397291791002</v>
+        <v>0.08640146820888539</v>
       </c>
     </row>
   </sheetData>
